--- a/Lista 2/sprawozdanie/wykresy/Podsumowanie Wykres.xlsx
+++ b/Lista 2/sprawozdanie/wykresy/Podsumowanie Wykres.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kubak\Desktop\c++\lista 2\pomiary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9C3536-B49E-4500-82D5-90B75D21AD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA9A0CA-D0D1-4672-8D9E-DEEFEFF94567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{83F883C6-FBBD-45C7-B59B-E53698518115}"/>
   </bookViews>
@@ -413,124 +413,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>2462670</c:v>
+                  <c:v>1930945</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5110439</c:v>
+                  <c:v>3925019</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8590940</c:v>
+                  <c:v>6015986</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11791639</c:v>
+                  <c:v>8379879</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16767921</c:v>
+                  <c:v>11191586</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19062745</c:v>
+                  <c:v>13753728</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24523011</c:v>
+                  <c:v>16385117</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28160623</c:v>
+                  <c:v>20266076</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32339484</c:v>
+                  <c:v>22102922</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36692720</c:v>
+                  <c:v>26730283</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41463371</c:v>
+                  <c:v>29115417</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>46683134</c:v>
+                  <c:v>33506847</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>52603225</c:v>
+                  <c:v>37474601</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>56012812</c:v>
+                  <c:v>39278913</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>64375075</c:v>
+                  <c:v>44013312</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>70882991</c:v>
+                  <c:v>47513794</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>81059001</c:v>
+                  <c:v>51272159</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>81842231</c:v>
+                  <c:v>54004048</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>90064861</c:v>
+                  <c:v>58409601</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>98229806</c:v>
+                  <c:v>67135283</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>106499860</c:v>
+                  <c:v>67426630</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>115657206</c:v>
+                  <c:v>74911173</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>119730184</c:v>
+                  <c:v>79887425</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>128829819</c:v>
+                  <c:v>82475195</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>135758853</c:v>
+                  <c:v>89270498</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>145929301</c:v>
+                  <c:v>94013557</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>149293201</c:v>
+                  <c:v>101985949</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>164808614</c:v>
+                  <c:v>102153800</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>170083054</c:v>
+                  <c:v>110720374</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>177216171</c:v>
+                  <c:v>115695937</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>186897774</c:v>
+                  <c:v>120014928</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>201817094</c:v>
+                  <c:v>127019296</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>223768719</c:v>
+                  <c:v>133963406</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>220556620</c:v>
+                  <c:v>138817864</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>222613600</c:v>
+                  <c:v>147587338</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>236440309</c:v>
+                  <c:v>152368133</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>251202786</c:v>
+                  <c:v>156578704</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>260302584</c:v>
+                  <c:v>163270469</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>275749194</c:v>
+                  <c:v>173767700</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>292048084</c:v>
+                  <c:v>180025779</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1977,16 +1977,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>742949</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>752474</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2333,8 +2333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB49F4F-62AD-4D2D-8A51-BE116C64AC6C}">
   <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2388,10 +2388,10 @@
         <v>25000</v>
       </c>
       <c r="B2">
-        <v>1570325</v>
+        <v>940625</v>
       </c>
       <c r="C2">
-        <v>892345</v>
+        <v>990320</v>
       </c>
       <c r="F2">
         <v>25000</v>
@@ -2429,10 +2429,10 @@
         <v>50000</v>
       </c>
       <c r="B3">
-        <v>3243005</v>
+        <v>1895511</v>
       </c>
       <c r="C3">
-        <v>1867434</v>
+        <v>2029508</v>
       </c>
       <c r="F3">
         <v>50000</v>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="T3">
         <f>SUM(B2:C2)</f>
-        <v>2462670</v>
+        <v>1930945</v>
       </c>
       <c r="U3">
         <f>SUM(L2:M2)</f>
@@ -2473,10 +2473,10 @@
         <v>75000</v>
       </c>
       <c r="B4">
-        <v>5567487</v>
+        <v>2828932</v>
       </c>
       <c r="C4">
-        <v>3023453</v>
+        <v>3187054</v>
       </c>
       <c r="F4">
         <v>75000</v>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="T4">
         <f>SUM(B3:C3)</f>
-        <v>5110439</v>
+        <v>3925019</v>
       </c>
       <c r="U4">
         <f>SUM(L3:M3)</f>
@@ -2517,10 +2517,10 @@
         <v>100000</v>
       </c>
       <c r="B5">
-        <v>7443011</v>
+        <v>3830703</v>
       </c>
       <c r="C5">
-        <v>4348628</v>
+        <v>4549176</v>
       </c>
       <c r="F5">
         <v>100000</v>
@@ -2545,7 +2545,7 @@
       </c>
       <c r="T5">
         <f>SUM(B4:C4)</f>
-        <v>8590940</v>
+        <v>6015986</v>
       </c>
       <c r="U5">
         <f>SUM(L4:M4)</f>
@@ -2561,10 +2561,10 @@
         <v>125000</v>
       </c>
       <c r="B6">
-        <v>10898590</v>
+        <v>5107226</v>
       </c>
       <c r="C6">
-        <v>5869331</v>
+        <v>6084360</v>
       </c>
       <c r="F6">
         <v>125000</v>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="T6">
         <f t="shared" ref="T6:T42" si="0">SUM(B5:C5)</f>
-        <v>11791639</v>
+        <v>8379879</v>
       </c>
       <c r="U6">
         <f t="shared" ref="U6:U42" si="1">SUM(L5:M5)</f>
@@ -2605,10 +2605,10 @@
         <v>150000</v>
       </c>
       <c r="B7">
-        <v>12279570</v>
+        <v>6238901</v>
       </c>
       <c r="C7">
-        <v>6783175</v>
+        <v>7514827</v>
       </c>
       <c r="F7">
         <v>150000</v>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="T7">
         <f t="shared" si="0"/>
-        <v>16767921</v>
+        <v>11191586</v>
       </c>
       <c r="U7">
         <f t="shared" si="1"/>
@@ -2649,10 +2649,10 @@
         <v>175000</v>
       </c>
       <c r="B8">
-        <v>16036922</v>
+        <v>7239661</v>
       </c>
       <c r="C8">
-        <v>8486089</v>
+        <v>9145456</v>
       </c>
       <c r="F8">
         <v>175000</v>
@@ -2677,7 +2677,7 @@
       </c>
       <c r="T8">
         <f t="shared" si="0"/>
-        <v>19062745</v>
+        <v>13753728</v>
       </c>
       <c r="U8">
         <f t="shared" si="1"/>
@@ -2693,10 +2693,10 @@
         <v>200000</v>
       </c>
       <c r="B9">
-        <v>18068523</v>
+        <v>8942810</v>
       </c>
       <c r="C9">
-        <v>10092100</v>
+        <v>11323266</v>
       </c>
       <c r="F9">
         <v>200000</v>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="T9">
         <f t="shared" si="0"/>
-        <v>24523011</v>
+        <v>16385117</v>
       </c>
       <c r="U9">
         <f t="shared" si="1"/>
@@ -2737,10 +2737,10 @@
         <v>225000</v>
       </c>
       <c r="B10">
-        <v>21044241</v>
+        <v>9431490</v>
       </c>
       <c r="C10">
-        <v>11295243</v>
+        <v>12671432</v>
       </c>
       <c r="F10">
         <v>225000</v>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="T10">
         <f t="shared" si="0"/>
-        <v>28160623</v>
+        <v>20266076</v>
       </c>
       <c r="U10">
         <f t="shared" si="1"/>
@@ -2781,10 +2781,10 @@
         <v>250000</v>
       </c>
       <c r="B11">
-        <v>23569116</v>
+        <v>11691806</v>
       </c>
       <c r="C11">
-        <v>13123604</v>
+        <v>15038477</v>
       </c>
       <c r="F11">
         <v>250000</v>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="T11">
         <f t="shared" si="0"/>
-        <v>32339484</v>
+        <v>22102922</v>
       </c>
       <c r="U11">
         <f t="shared" si="1"/>
@@ -2825,10 +2825,10 @@
         <v>275000</v>
       </c>
       <c r="B12">
-        <v>27163247</v>
+        <v>12527370</v>
       </c>
       <c r="C12">
-        <v>14300124</v>
+        <v>16588047</v>
       </c>
       <c r="F12">
         <v>275000</v>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="T12">
         <f t="shared" si="0"/>
-        <v>36692720</v>
+        <v>26730283</v>
       </c>
       <c r="U12">
         <f t="shared" si="1"/>
@@ -2869,10 +2869,10 @@
         <v>300000</v>
       </c>
       <c r="B13">
-        <v>30662327</v>
+        <v>14479240</v>
       </c>
       <c r="C13">
-        <v>16020807</v>
+        <v>19027607</v>
       </c>
       <c r="F13">
         <v>300000</v>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="T13">
         <f t="shared" si="0"/>
-        <v>41463371</v>
+        <v>29115417</v>
       </c>
       <c r="U13">
         <f t="shared" si="1"/>
@@ -2913,10 +2913,10 @@
         <v>325000</v>
       </c>
       <c r="B14">
-        <v>34539689</v>
+        <v>15725580</v>
       </c>
       <c r="C14">
-        <v>18063536</v>
+        <v>21749021</v>
       </c>
       <c r="F14">
         <v>325000</v>
@@ -2941,7 +2941,7 @@
       </c>
       <c r="T14">
         <f t="shared" si="0"/>
-        <v>46683134</v>
+        <v>33506847</v>
       </c>
       <c r="U14">
         <f t="shared" si="1"/>
@@ -2957,10 +2957,10 @@
         <v>350000</v>
       </c>
       <c r="B15">
-        <v>36685252</v>
+        <v>16177867</v>
       </c>
       <c r="C15">
-        <v>19327560</v>
+        <v>23101046</v>
       </c>
       <c r="F15">
         <v>350000</v>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="T15">
         <f t="shared" si="0"/>
-        <v>52603225</v>
+        <v>37474601</v>
       </c>
       <c r="U15">
         <f t="shared" si="1"/>
@@ -3001,10 +3001,10 @@
         <v>375000</v>
       </c>
       <c r="B16">
-        <v>42558612</v>
+        <v>18265559</v>
       </c>
       <c r="C16">
-        <v>21816463</v>
+        <v>25747753</v>
       </c>
       <c r="F16">
         <v>375000</v>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="T16">
         <f t="shared" si="0"/>
-        <v>56012812</v>
+        <v>39278913</v>
       </c>
       <c r="U16">
         <f t="shared" si="1"/>
@@ -3045,10 +3045,10 @@
         <v>400000</v>
       </c>
       <c r="B17">
-        <v>46964897</v>
+        <v>19623979</v>
       </c>
       <c r="C17">
-        <v>23918094</v>
+        <v>27889815</v>
       </c>
       <c r="F17">
         <v>400000</v>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="T17">
         <f t="shared" si="0"/>
-        <v>64375075</v>
+        <v>44013312</v>
       </c>
       <c r="U17">
         <f t="shared" si="1"/>
@@ -3089,10 +3089,10 @@
         <v>425000</v>
       </c>
       <c r="B18">
-        <v>53926963</v>
+        <v>20682123</v>
       </c>
       <c r="C18">
-        <v>27132038</v>
+        <v>30590036</v>
       </c>
       <c r="F18">
         <v>425000</v>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="T18">
         <f t="shared" si="0"/>
-        <v>70882991</v>
+        <v>47513794</v>
       </c>
       <c r="U18">
         <f t="shared" si="1"/>
@@ -3133,10 +3133,10 @@
         <v>450000</v>
       </c>
       <c r="B19">
-        <v>54144218</v>
+        <v>21362086</v>
       </c>
       <c r="C19">
-        <v>27698013</v>
+        <v>32641962</v>
       </c>
       <c r="F19">
         <v>450000</v>
@@ -3161,7 +3161,7 @@
       </c>
       <c r="T19">
         <f t="shared" si="0"/>
-        <v>81059001</v>
+        <v>51272159</v>
       </c>
       <c r="U19">
         <f t="shared" si="1"/>
@@ -3177,10 +3177,10 @@
         <v>475000</v>
       </c>
       <c r="B20">
-        <v>59834393</v>
+        <v>22667913</v>
       </c>
       <c r="C20">
-        <v>30230468</v>
+        <v>35741688</v>
       </c>
       <c r="F20">
         <v>475000</v>
@@ -3205,7 +3205,7 @@
       </c>
       <c r="T20">
         <f t="shared" si="0"/>
-        <v>81842231</v>
+        <v>54004048</v>
       </c>
       <c r="U20">
         <f t="shared" si="1"/>
@@ -3221,10 +3221,10 @@
         <v>500000</v>
       </c>
       <c r="B21">
-        <v>65519686</v>
+        <v>27200803</v>
       </c>
       <c r="C21">
-        <v>32710120</v>
+        <v>39934480</v>
       </c>
       <c r="F21">
         <v>500000</v>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="T21">
         <f t="shared" si="0"/>
-        <v>90064861</v>
+        <v>58409601</v>
       </c>
       <c r="U21">
         <f t="shared" si="1"/>
@@ -3265,10 +3265,10 @@
         <v>525000</v>
       </c>
       <c r="B22">
-        <v>71395476</v>
+        <v>26206265</v>
       </c>
       <c r="C22">
-        <v>35104384</v>
+        <v>41220365</v>
       </c>
       <c r="F22">
         <v>525000</v>
@@ -3293,7 +3293,7 @@
       </c>
       <c r="T22">
         <f t="shared" si="0"/>
-        <v>98229806</v>
+        <v>67135283</v>
       </c>
       <c r="U22">
         <f t="shared" si="1"/>
@@ -3309,10 +3309,10 @@
         <v>550000</v>
       </c>
       <c r="B23">
-        <v>77654472</v>
+        <v>29652915</v>
       </c>
       <c r="C23">
-        <v>38002734</v>
+        <v>45258258</v>
       </c>
       <c r="F23">
         <v>550000</v>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="T23">
         <f t="shared" si="0"/>
-        <v>106499860</v>
+        <v>67426630</v>
       </c>
       <c r="U23">
         <f t="shared" si="1"/>
@@ -3353,10 +3353,10 @@
         <v>575000</v>
       </c>
       <c r="B24">
-        <v>80290570</v>
+        <v>31237419</v>
       </c>
       <c r="C24">
-        <v>39439614</v>
+        <v>48650006</v>
       </c>
       <c r="F24">
         <v>575000</v>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="T24">
         <f t="shared" si="0"/>
-        <v>115657206</v>
+        <v>74911173</v>
       </c>
       <c r="U24">
         <f t="shared" si="1"/>
@@ -3397,10 +3397,10 @@
         <v>600000</v>
       </c>
       <c r="B25">
-        <v>86217047</v>
+        <v>31854566</v>
       </c>
       <c r="C25">
-        <v>42612772</v>
+        <v>50620629</v>
       </c>
       <c r="F25">
         <v>600000</v>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="T25">
         <f t="shared" si="0"/>
-        <v>119730184</v>
+        <v>79887425</v>
       </c>
       <c r="U25">
         <f t="shared" si="1"/>
@@ -3441,10 +3441,10 @@
         <v>625000</v>
       </c>
       <c r="B26">
-        <v>91015013</v>
+        <v>34537990</v>
       </c>
       <c r="C26">
-        <v>44743840</v>
+        <v>54732508</v>
       </c>
       <c r="F26">
         <v>625000</v>
@@ -3469,7 +3469,7 @@
       </c>
       <c r="T26">
         <f t="shared" si="0"/>
-        <v>128829819</v>
+        <v>82475195</v>
       </c>
       <c r="U26">
         <f t="shared" si="1"/>
@@ -3485,10 +3485,10 @@
         <v>650000</v>
       </c>
       <c r="B27">
-        <v>98503768</v>
+        <v>35798192</v>
       </c>
       <c r="C27">
-        <v>47425533</v>
+        <v>58215365</v>
       </c>
       <c r="F27">
         <v>650000</v>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="T27">
         <f t="shared" si="0"/>
-        <v>135758853</v>
+        <v>89270498</v>
       </c>
       <c r="U27">
         <f t="shared" si="1"/>
@@ -3529,10 +3529,10 @@
         <v>675000</v>
       </c>
       <c r="B28">
-        <v>99637953</v>
+        <v>39382465</v>
       </c>
       <c r="C28">
-        <v>49655248</v>
+        <v>62603484</v>
       </c>
       <c r="F28">
         <v>675000</v>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="T28">
         <f t="shared" si="0"/>
-        <v>145929301</v>
+        <v>94013557</v>
       </c>
       <c r="U28">
         <f t="shared" si="1"/>
@@ -3573,10 +3573,10 @@
         <v>700000</v>
       </c>
       <c r="B29">
-        <v>111504304</v>
+        <v>38033011</v>
       </c>
       <c r="C29">
-        <v>53304310</v>
+        <v>64120789</v>
       </c>
       <c r="F29">
         <v>700000</v>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="T29">
         <f t="shared" si="0"/>
-        <v>149293201</v>
+        <v>101985949</v>
       </c>
       <c r="U29">
         <f t="shared" si="1"/>
@@ -3617,10 +3617,10 @@
         <v>725000</v>
       </c>
       <c r="B30">
-        <v>114477250</v>
+        <v>42054907</v>
       </c>
       <c r="C30">
-        <v>55605804</v>
+        <v>68665467</v>
       </c>
       <c r="F30">
         <v>725000</v>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="T30">
         <f t="shared" si="0"/>
-        <v>164808614</v>
+        <v>102153800</v>
       </c>
       <c r="U30">
         <f t="shared" si="1"/>
@@ -3661,10 +3661,10 @@
         <v>750000</v>
       </c>
       <c r="B31">
-        <v>119452277</v>
+        <v>42797005</v>
       </c>
       <c r="C31">
-        <v>57763894</v>
+        <v>72898932</v>
       </c>
       <c r="F31">
         <v>750000</v>
@@ -3689,7 +3689,7 @@
       </c>
       <c r="T31">
         <f t="shared" si="0"/>
-        <v>170083054</v>
+        <v>110720374</v>
       </c>
       <c r="U31">
         <f t="shared" si="1"/>
@@ -3705,10 +3705,10 @@
         <v>775000</v>
       </c>
       <c r="B32">
-        <v>126263960</v>
+        <v>44011903</v>
       </c>
       <c r="C32">
-        <v>60633814</v>
+        <v>76003025</v>
       </c>
       <c r="F32">
         <v>775000</v>
@@ -3733,7 +3733,7 @@
       </c>
       <c r="T32">
         <f t="shared" si="0"/>
-        <v>177216171</v>
+        <v>115695937</v>
       </c>
       <c r="U32">
         <f t="shared" si="1"/>
@@ -3749,10 +3749,10 @@
         <v>800000</v>
       </c>
       <c r="B33">
-        <v>136313426</v>
+        <v>46858856</v>
       </c>
       <c r="C33">
-        <v>65503668</v>
+        <v>80160440</v>
       </c>
       <c r="F33">
         <v>800000</v>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="T33">
         <f t="shared" si="0"/>
-        <v>186897774</v>
+        <v>120014928</v>
       </c>
       <c r="U33">
         <f t="shared" si="1"/>
@@ -3793,10 +3793,10 @@
         <v>825000</v>
       </c>
       <c r="B34">
-        <v>152324097</v>
+        <v>48937093</v>
       </c>
       <c r="C34">
-        <v>71444622</v>
+        <v>85026313</v>
       </c>
       <c r="F34">
         <v>825000</v>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="T34">
         <f t="shared" si="0"/>
-        <v>201817094</v>
+        <v>127019296</v>
       </c>
       <c r="U34">
         <f t="shared" si="1"/>
@@ -3837,10 +3837,10 @@
         <v>850000</v>
       </c>
       <c r="B35">
-        <v>149568912</v>
+        <v>50428823</v>
       </c>
       <c r="C35">
-        <v>70987708</v>
+        <v>88389041</v>
       </c>
       <c r="F35">
         <v>850000</v>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="T35">
         <f t="shared" si="0"/>
-        <v>223768719</v>
+        <v>133963406</v>
       </c>
       <c r="U35">
         <f t="shared" si="1"/>
@@ -3881,10 +3881,10 @@
         <v>875000</v>
       </c>
       <c r="B36">
-        <v>149552030</v>
+        <v>53898727</v>
       </c>
       <c r="C36">
-        <v>73061570</v>
+        <v>93688611</v>
       </c>
       <c r="F36">
         <v>875000</v>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="T36">
         <f t="shared" si="0"/>
-        <v>220556620</v>
+        <v>138817864</v>
       </c>
       <c r="U36">
         <f t="shared" si="1"/>
@@ -3925,10 +3925,10 @@
         <v>900000</v>
       </c>
       <c r="B37">
-        <v>159811003</v>
+        <v>55139263</v>
       </c>
       <c r="C37">
-        <v>76629306</v>
+        <v>97228870</v>
       </c>
       <c r="F37">
         <v>900000</v>
@@ -3953,7 +3953,7 @@
       </c>
       <c r="T37">
         <f t="shared" si="0"/>
-        <v>222613600</v>
+        <v>147587338</v>
       </c>
       <c r="U37">
         <f t="shared" si="1"/>
@@ -3969,10 +3969,10 @@
         <v>925000</v>
       </c>
       <c r="B38">
-        <v>171294210</v>
+        <v>55829868</v>
       </c>
       <c r="C38">
-        <v>79908576</v>
+        <v>100748836</v>
       </c>
       <c r="F38">
         <v>925000</v>
@@ -3997,7 +3997,7 @@
       </c>
       <c r="T38">
         <f t="shared" si="0"/>
-        <v>236440309</v>
+        <v>152368133</v>
       </c>
       <c r="U38">
         <f t="shared" si="1"/>
@@ -4013,10 +4013,10 @@
         <v>950000</v>
       </c>
       <c r="B39">
-        <v>177117292</v>
+        <v>57625595</v>
       </c>
       <c r="C39">
-        <v>83185292</v>
+        <v>105644874</v>
       </c>
       <c r="F39">
         <v>950000</v>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="T39">
         <f t="shared" si="0"/>
-        <v>251202786</v>
+        <v>156578704</v>
       </c>
       <c r="U39">
         <f t="shared" si="1"/>
@@ -4057,10 +4057,10 @@
         <v>975000</v>
       </c>
       <c r="B40">
-        <v>187828902</v>
+        <v>61549820</v>
       </c>
       <c r="C40">
-        <v>87920292</v>
+        <v>112217880</v>
       </c>
       <c r="F40">
         <v>975000</v>
@@ -4085,7 +4085,7 @@
       </c>
       <c r="T40">
         <f t="shared" si="0"/>
-        <v>260302584</v>
+        <v>163270469</v>
       </c>
       <c r="U40">
         <f t="shared" si="1"/>
@@ -4101,10 +4101,10 @@
         <v>1000000</v>
       </c>
       <c r="B41">
-        <v>199766542</v>
+        <v>64328131</v>
       </c>
       <c r="C41">
-        <v>92281542</v>
+        <v>115697648</v>
       </c>
       <c r="F41">
         <v>1000000</v>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="T41">
         <f t="shared" si="0"/>
-        <v>275749194</v>
+        <v>173767700</v>
       </c>
       <c r="U41">
         <f t="shared" si="1"/>
@@ -4146,7 +4146,7 @@
       </c>
       <c r="T42">
         <f t="shared" si="0"/>
-        <v>292048084</v>
+        <v>180025779</v>
       </c>
       <c r="U42">
         <f t="shared" si="1"/>
